--- a/Run_List.xlsx
+++ b/Run_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="164">
   <si>
     <t>Company</t>
   </si>
@@ -381,24 +381,6 @@
     <t>Mount 1</t>
   </si>
   <si>
-    <t>Lower Bound</t>
-  </si>
-  <si>
-    <t>Upper Bound</t>
-  </si>
-  <si>
-    <t>Lower Bound2</t>
-  </si>
-  <si>
-    <t>Upper Bound2</t>
-  </si>
-  <si>
-    <t>Upper Bound 3</t>
-  </si>
-  <si>
-    <t>Lower Bound3</t>
-  </si>
-  <si>
     <t>Mount 2</t>
   </si>
   <si>
@@ -408,24 +390,6 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Lower Bound4</t>
-  </si>
-  <si>
-    <t>Upper Bound5</t>
-  </si>
-  <si>
-    <t>Lower Bound26</t>
-  </si>
-  <si>
-    <t>Upper Bound27</t>
-  </si>
-  <si>
-    <t>Lower Bound38</t>
-  </si>
-  <si>
-    <t>Upper Bound 39</t>
-  </si>
-  <si>
     <t>Lower Bound42</t>
   </si>
   <si>
@@ -517,6 +481,63 @@
   </si>
   <si>
     <t>number of run to optimize:</t>
+  </si>
+  <si>
+    <t>[-5 -5 -5]</t>
+  </si>
+  <si>
+    <t>LB (mm)</t>
+  </si>
+  <si>
+    <t>UB (mm)</t>
+  </si>
+  <si>
+    <t>LB (mm)2</t>
+  </si>
+  <si>
+    <t>UB (mm)3</t>
+  </si>
+  <si>
+    <t>LB (mm)3</t>
+  </si>
+  <si>
+    <t>UB (mm)4</t>
+  </si>
+  <si>
+    <t>LB (deg)</t>
+  </si>
+  <si>
+    <t>UB (deg)</t>
+  </si>
+  <si>
+    <t>LB (deg)2</t>
+  </si>
+  <si>
+    <t>UB (deg)3</t>
+  </si>
+  <si>
+    <t>LB (deg)3</t>
+  </si>
+  <si>
+    <t>UB (deg)4</t>
+  </si>
+  <si>
+    <t>KED1</t>
+  </si>
+  <si>
+    <t>KED6</t>
+  </si>
+  <si>
+    <t>KED2</t>
+  </si>
+  <si>
+    <t>KED3</t>
+  </si>
+  <si>
+    <t>KED4</t>
+  </si>
+  <si>
+    <t>KED5</t>
   </si>
 </sst>
 </file>
@@ -525,7 +546,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;###\-###\-####"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -672,7 +693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,12 +802,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -796,26 +811,35 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -825,7 +849,1338 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="132">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;###\-###\-####"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;###\-###\-####"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;###\-###\-####"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -973,885 +2328,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;###\-###\-####"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;###\-###\-####"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;###\-###\-####"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1861,17 +2337,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1881,17 +2346,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1901,17 +2355,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1927,6 +2370,223 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1959,444 +2619,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2644,28 +2866,28 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="Contacts" defaultPivotStyle="Contacts PivotTable">
     <tableStyle name="Contacts" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="119"/>
-      <tableStyleElement type="headerRow" dxfId="118"/>
-      <tableStyleElement type="secondRowStripe" dxfId="117"/>
+      <tableStyleElement type="wholeTable" dxfId="131"/>
+      <tableStyleElement type="headerRow" dxfId="130"/>
+      <tableStyleElement type="secondRowStripe" dxfId="129"/>
     </tableStyle>
     <tableStyle name="Contacts PivotTable" table="0" count="13" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="116"/>
-      <tableStyleElement type="headerRow" dxfId="115"/>
-      <tableStyleElement type="totalRow" dxfId="114"/>
-      <tableStyleElement type="firstRowStripe" dxfId="113"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="112"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="111"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="110"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="109"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="108"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="107"/>
-      <tableStyleElement type="thirdRowSubheading" dxfId="106"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="105"/>
-      <tableStyleElement type="pageFieldValues" dxfId="104"/>
+      <tableStyleElement type="wholeTable" dxfId="128"/>
+      <tableStyleElement type="headerRow" dxfId="127"/>
+      <tableStyleElement type="totalRow" dxfId="126"/>
+      <tableStyleElement type="firstRowStripe" dxfId="125"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="124"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="123"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="122"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="121"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="120"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="119"/>
+      <tableStyleElement type="thirdRowSubheading" dxfId="118"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="117"/>
+      <tableStyleElement type="pageFieldValues" dxfId="116"/>
     </tableStyle>
     <tableStyle name="Customer Contacts" pivot="0" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="wholeTable" dxfId="103"/>
-      <tableStyleElement type="headerRow" dxfId="102"/>
+      <tableStyleElement type="wholeTable" dxfId="115"/>
+      <tableStyleElement type="headerRow" dxfId="114"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -6224,15 +6446,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>241299</xdr:colOff>
+          <xdr:colOff>241300</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>131234</xdr:rowOff>
+          <xdr:rowOff>131233</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>982133</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>101601</xdr:rowOff>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6288,7 +6510,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>948266</xdr:colOff>
+          <xdr:colOff>948267</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6348,7 +6570,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>965200</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>33866</xdr:rowOff>
+          <xdr:rowOff>33867</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6464,7 +6686,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>1392767</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>152399</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8074,54 +8296,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Contacts" displayName="Contacts" ref="C7:AU13" headerRowDxfId="101" dataDxfId="100" totalsRowDxfId="99">
-  <autoFilter ref="C7:AU13" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="45">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Index" totalsRowLabel="Total" dataDxfId="98"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="File Name" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{D450E546-89B2-4482-B9D4-3556653D6F05}" name="Input Data" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="rpm" dataDxfId="95"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Torque" dataDxfId="94"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Lower Bound" dataDxfId="93"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Upper Bound" dataDxfId="92"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Lower Bound2" dataDxfId="91"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Upper Bound2" dataDxfId="90"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Lower Bound3" dataDxfId="89"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Upper Bound 3" dataDxfId="88"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Lower Bound4" dataDxfId="87"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Upper Bound5" dataDxfId="86"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Lower Bound26" dataDxfId="85"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Upper Bound27" dataDxfId="84"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Lower Bound38" dataDxfId="83"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Upper Bound 39" dataDxfId="82"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Lower Bound42" dataDxfId="81"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Upper Bound53" dataDxfId="80"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Lower Bound264" dataDxfId="79"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Upper Bound275" dataDxfId="78"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Lower Bound386" dataDxfId="77"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Upper Bound 397" dataDxfId="76"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Lower Bound422" dataDxfId="75"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Upper Bound533" dataDxfId="74"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Lower Bound2644" dataDxfId="73"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Upper Bound2755" dataDxfId="72"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Lower Bound3866" dataDxfId="71"/>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Upper Bound 3977" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Optimization Variables" totalsRowFunction="count" dataDxfId="69"/>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Details" dataDxfId="68"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Strategy" dataDxfId="67"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Obj Value" dataDxfId="66"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="TRA" dataDxfId="2"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="TF" dataDxfId="0"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="TA" dataDxfId="1"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Ar" dataDxfId="5"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="NF" dataDxfId="3"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="KED" dataDxfId="4"/>
-    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="NF1" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NF2" dataDxfId="64" dataCellStyle="Hyperlink"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="NF3" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{CA2EE080-FC55-49A7-BEA1-44E8130B9ABF}" name="NF4" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{59739605-6711-497F-BD0D-7C399D1CE599}" name="NF5" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="11" xr3:uid="{0E3D3E5E-DC2F-476F-A926-B187EA225C7E}" name="NF6" dataDxfId="57" totalsRowDxfId="56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Contacts" displayName="Contacts" ref="C7:BA13" headerRowDxfId="113" dataDxfId="112" totalsRowDxfId="111">
+  <autoFilter ref="C7:BA13" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="51">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Index" totalsRowLabel="Total" dataDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="File Name" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{D450E546-89B2-4482-B9D4-3556653D6F05}" name="Input Data" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="rpm" dataDxfId="107"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Torque" dataDxfId="106"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="LB (mm)" dataDxfId="105"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="UB (mm)" dataDxfId="104"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="LB (mm)2" dataDxfId="103"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="UB (mm)3" dataDxfId="102"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="LB (mm)3" dataDxfId="101"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="UB (mm)4" dataDxfId="100"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="LB (deg)" dataDxfId="99"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="UB (deg)" dataDxfId="98"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="LB (deg)2" dataDxfId="97"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="UB (deg)3" dataDxfId="96"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="LB (deg)3" dataDxfId="95"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="UB (deg)4" dataDxfId="94"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Lower Bound42" dataDxfId="93"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Upper Bound53" dataDxfId="92"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Lower Bound264" dataDxfId="91"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Upper Bound275" dataDxfId="90"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Lower Bound386" dataDxfId="89"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Upper Bound 397" dataDxfId="88"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Lower Bound422" dataDxfId="87"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Upper Bound533" dataDxfId="86"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Lower Bound2644" dataDxfId="85"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Upper Bound2755" dataDxfId="84"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Lower Bound3866" dataDxfId="83"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Upper Bound 3977" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Optimization Variables" totalsRowFunction="count" dataDxfId="81"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Details" dataDxfId="80"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Strategy" dataDxfId="79"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Obj Value" dataDxfId="78"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="TRA" dataDxfId="77"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="TF" dataDxfId="76"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="TA" dataDxfId="75"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Ar" dataDxfId="74"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="NF" dataDxfId="73"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="KED" dataDxfId="72"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="NF1" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NF2" dataDxfId="70" dataCellStyle="Hyperlink"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="NF3" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{CA2EE080-FC55-49A7-BEA1-44E8130B9ABF}" name="NF4" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{59739605-6711-497F-BD0D-7C399D1CE599}" name="NF5" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="11" xr3:uid="{0E3D3E5E-DC2F-476F-A926-B187EA225C7E}" name="NF6" dataDxfId="6" totalsRowDxfId="63"/>
+    <tableColumn id="12" xr3:uid="{2C1F5378-42FE-4887-BE80-81E621740C8D}" name="KED1" dataDxfId="5" totalsRowDxfId="62"/>
+    <tableColumn id="14" xr3:uid="{A0E69D88-8FE1-4F9B-98A4-B2C10E48E5C8}" name="KED2" dataDxfId="4" totalsRowDxfId="61"/>
+    <tableColumn id="15" xr3:uid="{C9240DEF-4E6E-488F-94B5-2FADC528E260}" name="KED3" dataDxfId="3" totalsRowDxfId="60"/>
+    <tableColumn id="16" xr3:uid="{2FEDC61C-CD40-4552-8D87-057FDCD1DDF6}" name="KED4" dataDxfId="2" totalsRowDxfId="59"/>
+    <tableColumn id="36" xr3:uid="{DA52B622-D985-489B-AA5C-B59D1327C6BE}" name="KED5" dataDxfId="1" totalsRowDxfId="58"/>
+    <tableColumn id="48" xr3:uid="{C13C2AAC-ADC5-425C-A87F-2FD669A4BFFB}" name="KED6" dataDxfId="0" totalsRowDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="Contacts" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -8133,10 +8361,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tblMyAddress" displayName="tblMyAddress" ref="B6:C13" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tblMyAddress" displayName="tblMyAddress" ref="B6:C13" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="My Address" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Values" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="My Address" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Values" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="Contacts" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -8148,58 +8376,58 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="DataSample" displayName="DataSample" ref="B6:U14" headerRowDxfId="51" dataDxfId="50" totalsRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="DataSample" displayName="DataSample" ref="B6:U14" headerRowDxfId="52" dataDxfId="51" totalsRowDxfId="50">
   <autoFilter ref="B6:U14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Customer ID" totalsRowLabel="Total" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Company" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Contact" totalsRowFunction="count" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Contact Type" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Phone" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Cell" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="FAX" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Email" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Twitter" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Facebook" dataDxfId="39"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="LinkedIn" dataDxfId="38"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Website" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Address" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="City" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="State" dataDxfId="34"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Zip" dataDxfId="33"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="Country" dataDxfId="32"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Directions" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Contact Title" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Notes" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Customer ID" totalsRowLabel="Total" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Company" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Contact" totalsRowFunction="count" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Contact Type" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Phone" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Cell" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="FAX" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Email" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Twitter" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Facebook" dataDxfId="40"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="LinkedIn" dataDxfId="39"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Website" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Address" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="City" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="State" dataDxfId="35"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Zip" dataDxfId="34"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="Country" dataDxfId="33"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Directions" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Contact Title" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Notes" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="Contacts" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="DataCopy" displayName="DataCopy" ref="B28:U29" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="DataCopy" displayName="DataCopy" ref="B28:U29" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
   <autoFilter ref="B28:U29" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Customer ID" totalsRowLabel="Total" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Company" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Contact" totalsRowFunction="count" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Contact Type" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Phone" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Cell" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Fax" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="E-Mail" dataDxfId="18" dataCellStyle="Hyperlink"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Twitter" dataDxfId="17" dataCellStyle="Hyperlink"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Facebook" dataDxfId="16" dataCellStyle="Hyperlink"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="LinkedIn" dataDxfId="15" dataCellStyle="Hyperlink"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Website" dataDxfId="14" dataCellStyle="Hyperlink"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Address" dataDxfId="13" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="City" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="State" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Zip" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="Country" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Directions" dataDxfId="8" dataCellStyle="Hyperlink"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Contact Title" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="Notes" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Customer ID" totalsRowLabel="Total" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Company" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Contact" totalsRowFunction="count" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Contact Type" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Phone" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Cell" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Fax" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="E-Mail" dataDxfId="19" dataCellStyle="Hyperlink"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Twitter" dataDxfId="18" dataCellStyle="Hyperlink"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Facebook" dataDxfId="17" dataCellStyle="Hyperlink"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="LinkedIn" dataDxfId="16" dataCellStyle="Hyperlink"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Website" dataDxfId="15" dataCellStyle="Hyperlink"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Address" dataDxfId="14" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="City" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="State" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Zip" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="Country" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Directions" dataDxfId="9" dataCellStyle="Hyperlink"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Contact Title" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="Notes" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="Contacts" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8436,10 +8664,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B1:AU24"/>
+  <dimension ref="B1:BB24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8487,10 +8715,11 @@
     <col min="43" max="43" width="19.73046875" style="5" customWidth="1"/>
     <col min="44" max="44" width="21.3984375" style="5" customWidth="1"/>
     <col min="45" max="47" width="10.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.1328125" style="5"/>
+    <col min="48" max="53" width="13.9296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.1328125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:54" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -8535,7 +8764,7 @@
       <c r="AQ1" s="3"/>
       <c r="AR1" s="3"/>
     </row>
-    <row r="2" spans="2:47" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:54" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="str">
         <f>CompanyContactsHeader</f>
         <v>SAIPA, INC. CUSTOMER</v>
@@ -8583,7 +8812,7 @@
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
     </row>
-    <row r="3" spans="2:47" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="1.75">
+    <row r="3" spans="2:54" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="1.75">
       <c r="B3" s="9" t="s">
         <v>78</v>
       </c>
@@ -8630,7 +8859,7 @@
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
     </row>
-    <row r="4" spans="2:47" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:54" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -8675,119 +8904,119 @@
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
     </row>
-    <row r="5" spans="2:47" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="36" t="s">
+    <row r="5" spans="2:54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="C5" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="47"/>
       <c r="E5" s="35"/>
-      <c r="F5" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36" t="s">
+      <c r="F5" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AJ5" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AJ5" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
     </row>
-    <row r="6" spans="2:47" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6">
+    <row r="6" spans="2:54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46">
         <v>5</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37" t="s">
+      <c r="O6" s="48"/>
+      <c r="P6" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37" t="s">
+      <c r="U6" s="48"/>
+      <c r="V6" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE6" s="37"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE6" s="48"/>
     </row>
-    <row r="7" spans="2:47" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="12" t="s">
         <v>105</v>
       </c>
@@ -8795,7 +9024,7 @@
         <v>92</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>106</v>
@@ -8804,76 +9033,76 @@
         <v>107</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="T7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="U7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="V7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="O7" s="5" t="s">
+      <c r="W7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z7" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="AA7" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="AB7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="AC7" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="AD7" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="AE7" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD7" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE7" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="AF7" s="12" t="s">
         <v>83</v>
@@ -8906,25 +9135,44 @@
         <v>90</v>
       </c>
       <c r="AP7" s="12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="AQ7" s="12" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="AR7" s="12" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="AS7" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="AT7" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="AU7" s="5" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="AV7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ7" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB7" s="5"/>
     </row>
-    <row r="8" spans="2:47" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="12">
         <v>1</v>
       </c>
@@ -8932,52 +9180,52 @@
         <v>93</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F8" s="31">
         <v>1000</v>
       </c>
       <c r="G8" s="31">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N8" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="R8" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="S8" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="U8" s="31" t="s">
         <v>108</v>
@@ -8989,13 +9237,13 @@
         <v>108</v>
       </c>
       <c r="X8" s="31" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="Y8" s="31" t="s">
         <v>108</v>
       </c>
       <c r="Z8" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AA8" s="31" t="s">
         <v>108</v>
@@ -9007,13 +9255,13 @@
         <v>108</v>
       </c>
       <c r="AD8" s="31" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="AE8" s="31" t="s">
         <v>108</v>
       </c>
       <c r="AF8" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AG8" s="12" t="s">
         <v>94</v>
@@ -9025,43 +9273,62 @@
         <v>70.011499999999998</v>
       </c>
       <c r="AJ8" s="29">
-        <v>57979.640898695063</v>
-      </c>
-      <c r="AK8" s="38">
-        <v>116.86063325830426</v>
+        <v>57979.640898692982</v>
+      </c>
+      <c r="AK8" s="36">
+        <v>110.71007012935208</v>
       </c>
       <c r="AL8" s="12">
-        <v>0.13729965424888774</v>
+        <v>0.13007335935334541</v>
       </c>
       <c r="AM8" s="12">
-        <v>-33.684183182521849</v>
-      </c>
-      <c r="AN8" s="38">
-        <v>18.246984281368782</v>
+        <v>-33.684183144827848</v>
+      </c>
+      <c r="AN8" s="36">
+        <v>18.246983064539016</v>
       </c>
       <c r="AO8" s="12">
-        <v>61.001639935706955</v>
-      </c>
-      <c r="AP8" s="41">
-        <v>13.089246266663281</v>
-      </c>
-      <c r="AQ8" s="42">
-        <v>10.47632800020858</v>
-      </c>
-      <c r="AR8" s="43">
-        <v>8.4299622065973434</v>
-      </c>
-      <c r="AS8" s="44">
-        <v>23.23984066872741</v>
-      </c>
-      <c r="AT8" s="44">
-        <v>15.306171346208608</v>
-      </c>
-      <c r="AU8" s="44">
-        <v>25.130934473030106</v>
-      </c>
+        <v>61.001644698795126</v>
+      </c>
+      <c r="AP8" s="39">
+        <v>13.089245962587286</v>
+      </c>
+      <c r="AQ8" s="40">
+        <v>10.476327987633866</v>
+      </c>
+      <c r="AR8" s="41">
+        <v>8.4299622065972208</v>
+      </c>
+      <c r="AS8" s="42">
+        <v>23.239840652504263</v>
+      </c>
+      <c r="AT8" s="42">
+        <v>15.306171264719469</v>
+      </c>
+      <c r="AU8" s="42">
+        <v>25.130933353912503</v>
+      </c>
+      <c r="AV8" s="42">
+        <v>66.677189651172142</v>
+      </c>
+      <c r="AW8" s="42">
+        <v>75.679278970051456</v>
+      </c>
+      <c r="AX8" s="42">
+        <v>42.027965902874875</v>
+      </c>
+      <c r="AY8" s="42">
+        <v>82.481844937690681</v>
+      </c>
+      <c r="AZ8" s="42">
+        <v>74.613920777106401</v>
+      </c>
+      <c r="BA8" s="42">
+        <v>96.479008508529617</v>
+      </c>
+      <c r="BB8" s="32"/>
     </row>
-    <row r="9" spans="2:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="12">
         <v>2</v>
       </c>
@@ -9069,7 +9336,7 @@
         <v>96</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F9" s="31">
         <v>1000</v>
@@ -9078,43 +9345,43 @@
         <v>95</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N9" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="R9" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="S9" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="U9" s="31" t="s">
         <v>108</v>
@@ -9126,13 +9393,13 @@
         <v>108</v>
       </c>
       <c r="X9" s="31" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="Y9" s="31" t="s">
         <v>108</v>
       </c>
       <c r="Z9" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AA9" s="31" t="s">
         <v>108</v>
@@ -9144,13 +9411,13 @@
         <v>108</v>
       </c>
       <c r="AD9" s="31" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="AE9" s="31" t="s">
         <v>108</v>
       </c>
       <c r="AF9" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AG9" s="12" t="s">
         <v>95</v>
@@ -9164,7 +9431,7 @@
       <c r="AJ9" s="29">
         <v>123211.56039242282</v>
       </c>
-      <c r="AK9" s="38">
+      <c r="AK9" s="36">
         <v>92.172660408087836</v>
       </c>
       <c r="AL9" s="12">
@@ -9173,32 +9440,39 @@
       <c r="AM9" s="12">
         <v>-31.555351331619192</v>
       </c>
-      <c r="AN9" s="38">
+      <c r="AN9" s="36">
         <v>28.611265083210426</v>
       </c>
       <c r="AO9" s="12">
         <v>168.54582724693751</v>
       </c>
-      <c r="AP9" s="41">
+      <c r="AP9" s="39">
         <v>14.350363692384324</v>
       </c>
-      <c r="AQ9" s="42">
+      <c r="AQ9" s="40">
         <v>11.394079242422476</v>
       </c>
-      <c r="AR9" s="43">
+      <c r="AR9" s="41">
         <v>13.128393018417128</v>
       </c>
-      <c r="AS9" s="44">
+      <c r="AS9" s="42">
         <v>26.792316395037169</v>
       </c>
-      <c r="AT9" s="44">
+      <c r="AT9" s="42">
         <v>27.690555669756129</v>
       </c>
-      <c r="AU9" s="44">
+      <c r="AU9" s="42">
         <v>17.872374959687548</v>
       </c>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="42"/>
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="42"/>
+      <c r="BB9" s="32"/>
     </row>
-    <row r="10" spans="2:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="12">
         <v>3</v>
       </c>
@@ -9206,7 +9480,7 @@
         <v>98</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F10" s="31">
         <v>1000</v>
@@ -9215,43 +9489,43 @@
         <v>95</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="R10" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="S10" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="T10" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="U10" s="31" t="s">
         <v>108</v>
@@ -9263,13 +9537,13 @@
         <v>108</v>
       </c>
       <c r="X10" s="31" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="Y10" s="31" t="s">
         <v>108</v>
       </c>
       <c r="Z10" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AA10" s="31" t="s">
         <v>108</v>
@@ -9281,13 +9555,13 @@
         <v>108</v>
       </c>
       <c r="AD10" s="31" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="AE10" s="31" t="s">
         <v>108</v>
       </c>
       <c r="AF10" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AG10" s="12" t="s">
         <v>97</v>
@@ -9301,7 +9575,7 @@
       <c r="AJ10" s="30">
         <v>65125.410785856249</v>
       </c>
-      <c r="AK10" s="39">
+      <c r="AK10" s="37">
         <v>114.50258448901006</v>
       </c>
       <c r="AL10" s="28">
@@ -9310,32 +9584,39 @@
       <c r="AM10" s="28">
         <v>-35.852301295087834</v>
       </c>
-      <c r="AN10" s="39">
+      <c r="AN10" s="37">
         <v>22.752927431927574</v>
       </c>
       <c r="AO10" s="28">
         <v>41.364308985204218</v>
       </c>
-      <c r="AP10" s="41">
+      <c r="AP10" s="39">
         <v>13.2899583196915</v>
       </c>
-      <c r="AQ10" s="42">
+      <c r="AQ10" s="40">
         <v>11.416675882592884</v>
       </c>
-      <c r="AR10" s="43">
+      <c r="AR10" s="41">
         <v>12.581248280509538</v>
       </c>
-      <c r="AS10" s="44">
+      <c r="AS10" s="42">
         <v>25.741013728862018</v>
       </c>
-      <c r="AT10" s="44">
+      <c r="AT10" s="42">
         <v>15.413698353010385</v>
       </c>
-      <c r="AU10" s="44">
+      <c r="AU10" s="42">
         <v>26.016967069545633</v>
       </c>
+      <c r="AV10" s="42"/>
+      <c r="AW10" s="42"/>
+      <c r="AX10" s="42"/>
+      <c r="AY10" s="42"/>
+      <c r="AZ10" s="42"/>
+      <c r="BA10" s="42"/>
+      <c r="BB10" s="32"/>
     </row>
-    <row r="11" spans="2:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="31">
         <v>4</v>
       </c>
@@ -9343,7 +9624,7 @@
         <v>100</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F11" s="31">
         <v>1000</v>
@@ -9352,43 +9633,43 @@
         <v>95</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N11" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="P11" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="R11" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="S11" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="T11" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="U11" s="31" t="s">
         <v>108</v>
@@ -9400,13 +9681,13 @@
         <v>108</v>
       </c>
       <c r="X11" s="31" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="Y11" s="31" t="s">
         <v>108</v>
       </c>
       <c r="Z11" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AA11" s="31" t="s">
         <v>108</v>
@@ -9418,13 +9699,13 @@
         <v>108</v>
       </c>
       <c r="AD11" s="31" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="AE11" s="31" t="s">
         <v>108</v>
       </c>
       <c r="AF11" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AG11" s="12" t="s">
         <v>99</v>
@@ -9438,7 +9719,7 @@
       <c r="AJ11" s="34">
         <v>75256.277670018972</v>
       </c>
-      <c r="AK11" s="40">
+      <c r="AK11" s="38">
         <v>115.86658422066454</v>
       </c>
       <c r="AL11" s="32">
@@ -9447,32 +9728,39 @@
       <c r="AM11" s="32">
         <v>-33.525516060842769</v>
       </c>
-      <c r="AN11" s="40">
+      <c r="AN11" s="38">
         <v>15.427817261637987</v>
       </c>
       <c r="AO11" s="32">
         <v>219.69326708676448</v>
       </c>
-      <c r="AP11" s="45">
+      <c r="AP11" s="43">
         <v>7.0623704472962157</v>
       </c>
-      <c r="AQ11" s="46">
+      <c r="AQ11" s="44">
         <v>15.470246146657727</v>
       </c>
-      <c r="AR11" s="44">
+      <c r="AR11" s="42">
         <v>10.133036968714839</v>
       </c>
-      <c r="AS11" s="44">
+      <c r="AS11" s="42">
         <v>11.158998635218003</v>
       </c>
-      <c r="AT11" s="44">
+      <c r="AT11" s="42">
         <v>22.781986912273592</v>
       </c>
-      <c r="AU11" s="44">
+      <c r="AU11" s="42">
         <v>24.645830349364395</v>
       </c>
+      <c r="AV11" s="42"/>
+      <c r="AW11" s="42"/>
+      <c r="AX11" s="42"/>
+      <c r="AY11" s="42"/>
+      <c r="AZ11" s="42"/>
+      <c r="BA11" s="42"/>
+      <c r="BB11" s="32"/>
     </row>
-    <row r="12" spans="2:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="31">
         <v>5</v>
       </c>
@@ -9480,7 +9768,7 @@
         <v>102</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F12" s="31">
         <v>1000</v>
@@ -9489,43 +9777,43 @@
         <v>95</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N12" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="O12" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="P12" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="R12" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="S12" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="U12" s="31" t="s">
         <v>108</v>
@@ -9537,13 +9825,13 @@
         <v>108</v>
       </c>
       <c r="X12" s="31" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="Y12" s="31" t="s">
         <v>108</v>
       </c>
       <c r="Z12" s="31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AA12" s="31" t="s">
         <v>108</v>
@@ -9555,13 +9843,13 @@
         <v>108</v>
       </c>
       <c r="AD12" s="31" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="AE12" s="31" t="s">
         <v>108</v>
       </c>
       <c r="AF12" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AG12" s="12" t="s">
         <v>101</v>
@@ -9575,7 +9863,7 @@
       <c r="AJ12" s="34">
         <v>168200</v>
       </c>
-      <c r="AK12" s="40">
+      <c r="AK12" s="38">
         <v>67.668199999999999</v>
       </c>
       <c r="AL12" s="32">
@@ -9584,7 +9872,7 @@
       <c r="AM12" s="32">
         <v>29.7483</v>
       </c>
-      <c r="AN12" s="40">
+      <c r="AN12" s="38">
         <v>21.782</v>
       </c>
       <c r="AO12" s="32">
@@ -9596,8 +9884,15 @@
       <c r="AS12" s="32"/>
       <c r="AT12" s="32"/>
       <c r="AU12" s="32"/>
+      <c r="AV12" s="42"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="42"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="42"/>
+      <c r="BA12" s="42"/>
+      <c r="BB12" s="32"/>
     </row>
-    <row r="13" spans="2:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
@@ -9632,10 +9927,10 @@
       <c r="AH13" s="31"/>
       <c r="AI13" s="32"/>
       <c r="AJ13" s="32"/>
-      <c r="AK13" s="40"/>
+      <c r="AK13" s="38"/>
       <c r="AL13" s="32"/>
       <c r="AM13" s="32"/>
-      <c r="AN13" s="40"/>
+      <c r="AN13" s="38"/>
       <c r="AO13" s="32"/>
       <c r="AP13" s="32"/>
       <c r="AQ13" s="33"/>
@@ -9643,43 +9938,50 @@
       <c r="AS13" s="32"/>
       <c r="AT13" s="32"/>
       <c r="AU13" s="32"/>
+      <c r="AV13" s="42"/>
+      <c r="AW13" s="42"/>
+      <c r="AX13" s="42"/>
+      <c r="AY13" s="42"/>
+      <c r="AZ13" s="42"/>
+      <c r="BA13" s="42"/>
+      <c r="BB13" s="32"/>
     </row>
-    <row r="14" spans="2:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AK14" s="47"/>
-      <c r="AN14" s="47"/>
+    <row r="14" spans="2:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AK14" s="45"/>
+      <c r="AN14" s="45"/>
     </row>
-    <row r="15" spans="2:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AK15" s="47"/>
-      <c r="AN15" s="47"/>
+    <row r="15" spans="2:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AK15" s="45"/>
+      <c r="AN15" s="45"/>
     </row>
-    <row r="16" spans="2:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AK16" s="47"/>
-      <c r="AN16" s="47"/>
+    <row r="16" spans="2:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AK16" s="45"/>
+      <c r="AN16" s="45"/>
     </row>
     <row r="17" spans="37:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AK17" s="47"/>
-      <c r="AN17" s="47"/>
+      <c r="AK17" s="45"/>
+      <c r="AN17" s="45"/>
     </row>
     <row r="18" spans="37:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AN18" s="47"/>
+      <c r="AN18" s="45"/>
     </row>
     <row r="19" spans="37:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AN19" s="47"/>
+      <c r="AN19" s="45"/>
     </row>
     <row r="20" spans="37:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AN20" s="47"/>
+      <c r="AN20" s="45"/>
     </row>
     <row r="21" spans="37:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AN21" s="47"/>
+      <c r="AN21" s="45"/>
     </row>
     <row r="22" spans="37:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AN22" s="47"/>
+      <c r="AN22" s="45"/>
     </row>
     <row r="23" spans="37:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AN23" s="47"/>
+      <c r="AN23" s="45"/>
     </row>
     <row r="24" spans="37:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AN24" s="47"/>
+      <c r="AN24" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -10644,132 +10946,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
-    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
-    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">846006</LocLastLocAttemptVersionLookup>
-    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
-    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-06-28T23:16:00+00:00</AssetStart>
-    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
-    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Value>1590092</Value>
-    </PublishStatusLookup>
-    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName>REDMOND\v-aptall</DisplayName>
-        <AccountId>2566</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
-    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
-    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
-    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP</AssetType>
-    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
-    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
-    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</IsSearchable>
-    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
-    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
-    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
-    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
-    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
-    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
-    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
-    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
-    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
-    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102930101</AssetId>
-    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
-    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
-    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
-    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
-    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10778,7 +10954,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x0101006EDDDB5EE6D98C44930B742096920B300400F5B6D36B3EF94B4E9A635CDF2A18F5B8" ma:contentTypeVersion="72" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a23e56308344d904b51738559c3d67c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4873beb7-5857-4685-be1f-d57550cc96cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd0908cc4600e77bf5da051303e00c8d" ns2:_="">
     <xsd:import namespace="4873beb7-5857-4685-be1f-d57550cc96cc"/>
@@ -11818,23 +11994,133 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AB8809-B126-4188-8846-728251218431}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
+    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </CampaignTagsTaxHTField0>
+    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
+    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">846006</LocLastLocAttemptVersionLookup>
+    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
+    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-06-28T23:16:00+00:00</AssetStart>
+    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
+    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Value>1590092</Value>
+    </PublishStatusLookup>
+    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName>REDMOND\v-aptall</DisplayName>
+        <AccountId>2566</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </APAuthor>
+    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
+    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
+    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
+    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP</AssetType>
+    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
+    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
+    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</IsSearchable>
+    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
+    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
+    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
+    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
+    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
+    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
+    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
+    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
+    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </LocalizationTagsTaxHTField0>
+    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
+    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </FeatureTagsTaxHTField0>
+    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102930101</AssetId>
+    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APEditor>
+    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
+    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
+    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
+    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </InternalTagsTaxHTField0>
+    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
+    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ScenarioTagsTaxHTField0>
+    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D064DEC1-D1DD-4D6E-84FD-C42E574FBE73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -11842,7 +12128,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D224296F-1A7C-49B3-A990-421E1B2A687C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11858,4 +12144,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AB8809-B126-4188-8846-728251218431}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Run_List.xlsx
+++ b/Run_List.xlsx
@@ -26,7 +26,7 @@
     <definedName name="CompanyState">Setup!$C$10</definedName>
     <definedName name="CompanyZip">Setup!$C$11</definedName>
     <definedName name="DataDisplayed">"sample"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Contacts!$C$7:$AQ$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Contacts!$C$7:$AQ$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Setup!$B$6:$C$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Contacts!$C:$D,Contacts!$7:$7</definedName>
     <definedName name="Slicer_Contact_Type">#N/A</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="173">
   <si>
     <t>Company</t>
   </si>
@@ -327,36 +327,6 @@
     <t>File Name</t>
   </si>
   <si>
-    <t>TF_001</t>
-  </si>
-  <si>
-    <t>P_Fix O_Fix and S_Free D_Free</t>
-  </si>
-  <si>
-    <t>P_Fix O_Fix and S_Free D_Free P_M1_Free 10 cm in two dir</t>
-  </si>
-  <si>
-    <t>TF_002</t>
-  </si>
-  <si>
-    <t>P_Fix O_Fix and S_Free D_Free P_M2_Free 10 cm in two dir</t>
-  </si>
-  <si>
-    <t>TF_003</t>
-  </si>
-  <si>
-    <t>P_Fix O_Fix and S_Free D_Free P_M3_Free 10 cm in two dir</t>
-  </si>
-  <si>
-    <t>TF_004</t>
-  </si>
-  <si>
-    <t>P_Fix O_Fix and S_Free D_Free O_M1_Free 10 deg in two dir</t>
-  </si>
-  <si>
-    <t>TF_005</t>
-  </si>
-  <si>
     <t>Tehran</t>
   </si>
   <si>
@@ -372,172 +342,229 @@
     <t>Torque</t>
   </si>
   <si>
+    <t>Mount 1</t>
+  </si>
+  <si>
+    <t>Lower Bound</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
+  <si>
+    <t>Lower Bound2</t>
+  </si>
+  <si>
+    <t>Upper Bound2</t>
+  </si>
+  <si>
+    <t>Upper Bound 3</t>
+  </si>
+  <si>
+    <t>Lower Bound3</t>
+  </si>
+  <si>
+    <t>Mount 2</t>
+  </si>
+  <si>
+    <t>Mount 3</t>
+  </si>
+  <si>
+    <t>Lower Bound4</t>
+  </si>
+  <si>
+    <t>Upper Bound5</t>
+  </si>
+  <si>
+    <t>Lower Bound26</t>
+  </si>
+  <si>
+    <t>Upper Bound27</t>
+  </si>
+  <si>
+    <t>Lower Bound38</t>
+  </si>
+  <si>
+    <t>Upper Bound 39</t>
+  </si>
+  <si>
+    <t>Lower Bound42</t>
+  </si>
+  <si>
+    <t>Upper Bound53</t>
+  </si>
+  <si>
+    <t>Lower Bound264</t>
+  </si>
+  <si>
+    <t>Upper Bound275</t>
+  </si>
+  <si>
+    <t>Lower Bound386</t>
+  </si>
+  <si>
+    <t>Upper Bound 397</t>
+  </si>
+  <si>
+    <t>Stiffness</t>
+  </si>
+  <si>
+    <t>Lower Bound422</t>
+  </si>
+  <si>
+    <t>Upper Bound533</t>
+  </si>
+  <si>
+    <t>Lower Bound2644</t>
+  </si>
+  <si>
+    <t>Upper Bound2755</t>
+  </si>
+  <si>
+    <t>Lower Bound3866</t>
+  </si>
+  <si>
+    <t>Upper Bound 3977</t>
+  </si>
+  <si>
+    <t>Damping</t>
+  </si>
+  <si>
+    <t>[0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10]</t>
+  </si>
+  <si>
+    <t>Sttifness &amp; Damping</t>
+  </si>
+  <si>
+    <t>Motor Inputs</t>
+  </si>
+  <si>
+    <t>Run Name</t>
+  </si>
+  <si>
+    <t>Optimization</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Input Data</t>
+  </si>
+  <si>
+    <t>quick3</t>
+  </si>
+  <si>
+    <t>NF1</t>
+  </si>
+  <si>
+    <t>NF2</t>
+  </si>
+  <si>
+    <t>NF3</t>
+  </si>
+  <si>
+    <t>NF4</t>
+  </si>
+  <si>
+    <t>NF5</t>
+  </si>
+  <si>
+    <t>NF6</t>
+  </si>
+  <si>
+    <t>number of run to optimize:</t>
+  </si>
+  <si>
+    <t>TRA_A1D1E4J1</t>
+  </si>
+  <si>
+    <t>S_Free D_Free</t>
+  </si>
+  <si>
+    <t>NF7</t>
+  </si>
+  <si>
+    <t>NF8</t>
+  </si>
+  <si>
+    <t>NF9</t>
+  </si>
+  <si>
+    <t>NF10</t>
+  </si>
+  <si>
+    <t>NF11</t>
+  </si>
+  <si>
+    <t>NF12</t>
+  </si>
+  <si>
+    <t>TRA_A1D1E4J2</t>
+  </si>
+  <si>
+    <t>TRA_A1D1E4J3</t>
+  </si>
+  <si>
+    <t>TRA_A1D2E4J1</t>
+  </si>
+  <si>
+    <t>TRA_A1D2E4J2</t>
+  </si>
+  <si>
+    <t>TRA_A1D2E4J3</t>
+  </si>
+  <si>
+    <t>[20, 20, 20]</t>
+  </si>
+  <si>
+    <t>TRA_A1D3E4J1</t>
+  </si>
+  <si>
+    <t>TRA_A1D3E4J2</t>
+  </si>
+  <si>
+    <t>TRA_A1D3E4J3</t>
+  </si>
+  <si>
+    <t>[50, 50, 50]</t>
+  </si>
+  <si>
+    <t>TRA_LHM_A2B1C1D1E4J1</t>
+  </si>
+  <si>
+    <t>[-20, -20, -20]</t>
+  </si>
+  <si>
+    <t>[-5, -5, -5]</t>
+  </si>
+  <si>
+    <t>[5, 5, 5]</t>
+  </si>
+  <si>
+    <t>TRA_LHM_A2B2C1D1E4J1</t>
+  </si>
+  <si>
+    <t>[-50, -50, -50]</t>
+  </si>
+  <si>
+    <t>Position (mm)</t>
+  </si>
+  <si>
+    <t>Orientation (deg)</t>
+  </si>
+  <si>
+    <t>TRA_LHM_A2B3C1D1E4J1</t>
+  </si>
+  <si>
+    <t>[-100, -100, -100]</t>
+  </si>
+  <si>
     <t>[100, 100, 100]</t>
   </si>
   <si>
-    <t>Orientation</t>
-  </si>
-  <si>
-    <t>Mount 1</t>
-  </si>
-  <si>
-    <t>Mount 2</t>
-  </si>
-  <si>
-    <t>Mount 3</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Lower Bound42</t>
-  </si>
-  <si>
-    <t>Upper Bound53</t>
-  </si>
-  <si>
-    <t>Lower Bound264</t>
-  </si>
-  <si>
-    <t>Upper Bound275</t>
-  </si>
-  <si>
-    <t>Lower Bound386</t>
-  </si>
-  <si>
-    <t>Upper Bound 397</t>
-  </si>
-  <si>
-    <t>Stiffness</t>
-  </si>
-  <si>
-    <t>Lower Bound422</t>
-  </si>
-  <si>
-    <t>Upper Bound533</t>
-  </si>
-  <si>
-    <t>Lower Bound2644</t>
-  </si>
-  <si>
-    <t>Upper Bound2755</t>
-  </si>
-  <si>
-    <t>Lower Bound3866</t>
-  </si>
-  <si>
-    <t>Upper Bound 3977</t>
-  </si>
-  <si>
-    <t>Damping</t>
-  </si>
-  <si>
-    <t>[0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[10, 10, 10]</t>
-  </si>
-  <si>
-    <t>Sttifness &amp; Damping</t>
-  </si>
-  <si>
-    <t>Motor Inputs</t>
-  </si>
-  <si>
-    <t>Run Name</t>
-  </si>
-  <si>
-    <t>Optimization</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Input Data</t>
-  </si>
-  <si>
-    <t>quick3</t>
-  </si>
-  <si>
-    <t>[50, 50, 50]</t>
-  </si>
-  <si>
-    <t>NF1</t>
-  </si>
-  <si>
-    <t>NF2</t>
-  </si>
-  <si>
-    <t>NF3</t>
-  </si>
-  <si>
-    <t>NF4</t>
-  </si>
-  <si>
-    <t>NF5</t>
-  </si>
-  <si>
-    <t>NF6</t>
-  </si>
-  <si>
-    <t>number of run to optimize:</t>
-  </si>
-  <si>
-    <t>[-5 -5 -5]</t>
-  </si>
-  <si>
-    <t>LB (mm)</t>
-  </si>
-  <si>
-    <t>UB (mm)</t>
-  </si>
-  <si>
-    <t>LB (mm)2</t>
-  </si>
-  <si>
-    <t>UB (mm)3</t>
-  </si>
-  <si>
-    <t>LB (mm)3</t>
-  </si>
-  <si>
-    <t>UB (mm)4</t>
-  </si>
-  <si>
-    <t>LB (deg)</t>
-  </si>
-  <si>
-    <t>UB (deg)</t>
-  </si>
-  <si>
-    <t>LB (deg)2</t>
-  </si>
-  <si>
-    <t>UB (deg)3</t>
-  </si>
-  <si>
-    <t>LB (deg)3</t>
-  </si>
-  <si>
-    <t>UB (deg)4</t>
-  </si>
-  <si>
-    <t>KED1</t>
-  </si>
-  <si>
-    <t>KED6</t>
-  </si>
-  <si>
-    <t>KED2</t>
-  </si>
-  <si>
-    <t>KED3</t>
-  </si>
-  <si>
-    <t>KED4</t>
-  </si>
-  <si>
-    <t>KED5</t>
+    <t>TRA_LHM_A2B1C2D1E4J1</t>
   </si>
 </sst>
 </file>
@@ -693,7 +720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,25 +805,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -823,22 +835,10 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -850,180 +850,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="132">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1981,12 +1807,28 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1997,12 +1839,28 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2013,6 +1871,30 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2021,12 +1903,124 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2222,30 +2216,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2295,6 +2266,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2319,6 +2291,32 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -6317,7 +6315,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1362075" cy="2190750"/>
+    <xdr:ext cx="1362075" cy="1748367"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
@@ -6388,13 +6386,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>241300</xdr:colOff>
+          <xdr:colOff>237067</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>173567</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>982133</xdr:colOff>
+          <xdr:colOff>977900</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>143933</xdr:rowOff>
         </xdr:to>
@@ -6446,15 +6444,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>241300</xdr:colOff>
+          <xdr:colOff>237067</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>131233</xdr:rowOff>
+          <xdr:rowOff>135467</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>982133</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
+          <xdr:rowOff>110067</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6504,13 +6502,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>207433</xdr:colOff>
+          <xdr:colOff>211667</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>29633</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>948267</xdr:colOff>
+          <xdr:colOff>952500</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6562,15 +6560,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>224367</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>67733</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>965200</xdr:colOff>
+          <xdr:colOff>969433</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>33867</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6678,7 +6676,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>186267</xdr:colOff>
+          <xdr:colOff>190500</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
@@ -8296,26 +8294,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Contacts" displayName="Contacts" ref="C7:BA13" headerRowDxfId="113" dataDxfId="112" totalsRowDxfId="111">
-  <autoFilter ref="C7:BA13" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Contacts" displayName="Contacts" ref="C7:BA45" headerRowDxfId="113" dataDxfId="112" totalsRowDxfId="111">
+  <autoFilter ref="C7:BA45" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="51">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Index" totalsRowLabel="Total" dataDxfId="110"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="File Name" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{D450E546-89B2-4482-B9D4-3556653D6F05}" name="Input Data" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Input Data" dataDxfId="108"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="rpm" dataDxfId="107"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Torque" dataDxfId="106"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="LB (mm)" dataDxfId="105"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="UB (mm)" dataDxfId="104"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="LB (mm)2" dataDxfId="103"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="UB (mm)3" dataDxfId="102"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="LB (mm)3" dataDxfId="101"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="UB (mm)4" dataDxfId="100"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="LB (deg)" dataDxfId="99"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="UB (deg)" dataDxfId="98"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="LB (deg)2" dataDxfId="97"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="UB (deg)3" dataDxfId="96"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="LB (deg)3" dataDxfId="95"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="UB (deg)4" dataDxfId="94"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Lower Bound" dataDxfId="105"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Upper Bound" dataDxfId="104"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Lower Bound2" dataDxfId="103"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Upper Bound2" dataDxfId="102"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Lower Bound3" dataDxfId="101"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Upper Bound 3" dataDxfId="100"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Lower Bound4" dataDxfId="99"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Upper Bound5" dataDxfId="98"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Lower Bound26" dataDxfId="97"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Upper Bound27" dataDxfId="96"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Lower Bound38" dataDxfId="95"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Upper Bound 39" dataDxfId="94"/>
     <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Lower Bound42" dataDxfId="93"/>
     <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Upper Bound53" dataDxfId="92"/>
     <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Lower Bound264" dataDxfId="91"/>
@@ -8341,15 +8339,15 @@
     <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="NF1" dataDxfId="71"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NF2" dataDxfId="70" dataCellStyle="Hyperlink"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="NF3" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{CA2EE080-FC55-49A7-BEA1-44E8130B9ABF}" name="NF4" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="10" xr3:uid="{59739605-6711-497F-BD0D-7C399D1CE599}" name="NF5" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="11" xr3:uid="{0E3D3E5E-DC2F-476F-A926-B187EA225C7E}" name="NF6" dataDxfId="6" totalsRowDxfId="63"/>
-    <tableColumn id="12" xr3:uid="{2C1F5378-42FE-4887-BE80-81E621740C8D}" name="KED1" dataDxfId="5" totalsRowDxfId="62"/>
-    <tableColumn id="14" xr3:uid="{A0E69D88-8FE1-4F9B-98A4-B2C10E48E5C8}" name="KED2" dataDxfId="4" totalsRowDxfId="61"/>
-    <tableColumn id="15" xr3:uid="{C9240DEF-4E6E-488F-94B5-2FADC528E260}" name="KED3" dataDxfId="3" totalsRowDxfId="60"/>
-    <tableColumn id="16" xr3:uid="{2FEDC61C-CD40-4552-8D87-057FDCD1DDF6}" name="KED4" dataDxfId="2" totalsRowDxfId="59"/>
-    <tableColumn id="36" xr3:uid="{DA52B622-D985-489B-AA5C-B59D1327C6BE}" name="KED5" dataDxfId="1" totalsRowDxfId="58"/>
-    <tableColumn id="48" xr3:uid="{C13C2AAC-ADC5-425C-A87F-2FD669A4BFFB}" name="KED6" dataDxfId="0" totalsRowDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NF4" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="NF5" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NF6" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="NF7" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="NF8" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="NF9" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="NF10" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="NF11" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="NF12" dataDxfId="51" totalsRowDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="Contacts" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -8361,10 +8359,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tblMyAddress" displayName="tblMyAddress" ref="B6:C13" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tblMyAddress" displayName="tblMyAddress" ref="B6:C13" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="My Address" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Values" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="My Address" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Values" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="Contacts" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -8376,58 +8374,58 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="DataSample" displayName="DataSample" ref="B6:U14" headerRowDxfId="52" dataDxfId="51" totalsRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="DataSample" displayName="DataSample" ref="B6:U14" headerRowDxfId="45" dataDxfId="44" totalsRowDxfId="43">
   <autoFilter ref="B6:U14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Customer ID" totalsRowLabel="Total" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Company" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Contact" totalsRowFunction="count" dataDxfId="47"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Contact Type" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Phone" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Cell" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="FAX" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Email" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Twitter" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Facebook" dataDxfId="40"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="LinkedIn" dataDxfId="39"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Website" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Address" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="City" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="State" dataDxfId="35"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Zip" dataDxfId="34"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="Country" dataDxfId="33"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Directions" dataDxfId="32"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Contact Title" dataDxfId="31"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Notes" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Customer ID" totalsRowLabel="Total" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Company" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Contact" totalsRowFunction="count" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Contact Type" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Phone" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Cell" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="FAX" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Email" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Twitter" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Facebook" dataDxfId="33"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="LinkedIn" dataDxfId="32"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Website" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Address" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="City" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="State" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Zip" dataDxfId="27"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="Country" dataDxfId="26"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Directions" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Contact Title" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Notes" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="Contacts" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="DataCopy" displayName="DataCopy" ref="B28:U29" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="DataCopy" displayName="DataCopy" ref="B28:U29" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <autoFilter ref="B28:U29" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Customer ID" totalsRowLabel="Total" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Company" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Contact" totalsRowFunction="count" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Contact Type" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Phone" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Cell" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Fax" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="E-Mail" dataDxfId="19" dataCellStyle="Hyperlink"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Twitter" dataDxfId="18" dataCellStyle="Hyperlink"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Facebook" dataDxfId="17" dataCellStyle="Hyperlink"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="LinkedIn" dataDxfId="16" dataCellStyle="Hyperlink"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Website" dataDxfId="15" dataCellStyle="Hyperlink"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Address" dataDxfId="14" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="City" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="State" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Zip" dataDxfId="11"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="Country" dataDxfId="10"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Directions" dataDxfId="9" dataCellStyle="Hyperlink"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Contact Title" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="Notes" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Customer ID" totalsRowLabel="Total" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Company" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Contact" totalsRowFunction="count" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Contact Type" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Phone" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Cell" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Fax" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="E-Mail" dataDxfId="12" dataCellStyle="Hyperlink"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Twitter" dataDxfId="11" dataCellStyle="Hyperlink"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Facebook" dataDxfId="10" dataCellStyle="Hyperlink"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="LinkedIn" dataDxfId="9" dataCellStyle="Hyperlink"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Website" dataDxfId="8" dataCellStyle="Hyperlink"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Address" dataDxfId="7" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="City" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="State" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Zip" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="Country" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Directions" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Contact Title" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Contacts" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8664,10 +8662,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B1:BB24"/>
+  <dimension ref="B1:BA45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AO5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX19" sqref="AX19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8708,18 +8706,17 @@
     <col min="36" max="36" width="13.3984375" style="5" customWidth="1"/>
     <col min="37" max="37" width="9.73046875" style="5" customWidth="1"/>
     <col min="38" max="38" width="16.73046875" style="5" customWidth="1"/>
-    <col min="39" max="39" width="17.6640625" style="5" customWidth="1"/>
-    <col min="40" max="40" width="12.9296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.73046875" style="5" customWidth="1"/>
+    <col min="40" max="40" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="13.86328125" style="5" customWidth="1"/>
     <col min="42" max="42" width="10.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="19.73046875" style="5" customWidth="1"/>
     <col min="44" max="44" width="21.3984375" style="5" customWidth="1"/>
     <col min="45" max="47" width="10.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="53" width="13.9296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.1328125" style="5"/>
+    <col min="48" max="16384" width="9.1328125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:53" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -8764,7 +8761,7 @@
       <c r="AQ1" s="3"/>
       <c r="AR1" s="3"/>
     </row>
-    <row r="2" spans="2:54" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:53" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="str">
         <f>CompanyContactsHeader</f>
         <v>SAIPA, INC. CUSTOMER</v>
@@ -8812,7 +8809,7 @@
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
     </row>
-    <row r="3" spans="2:54" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="1.75">
+    <row r="3" spans="2:53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="1.75">
       <c r="B3" s="9" t="s">
         <v>78</v>
       </c>
@@ -8859,7 +8856,7 @@
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
     </row>
-    <row r="4" spans="2:54" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:53" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -8904,205 +8901,200 @@
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
     </row>
-    <row r="5" spans="2:54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="47" t="s">
+    <row r="5" spans="2:53" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47" t="s">
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AJ5" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AJ5" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
     </row>
-    <row r="6" spans="2:54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46">
-        <v>5</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE6" s="48"/>
+    <row r="6" spans="2:53" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="5"/>
+      <c r="H6" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE6" s="38"/>
     </row>
-    <row r="7" spans="2:54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:53" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="12" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>92</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="O7" s="5" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="T7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="U7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="V7" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="W7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="X7" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="Y7" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="Y7" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="Z7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA7" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AA7" s="5" t="s">
+      <c r="AB7" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AB7" s="5" t="s">
+      <c r="AC7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AC7" s="5" t="s">
+      <c r="AD7" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AD7" s="5" t="s">
+      <c r="AE7" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="AE7" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="AF7" s="12" t="s">
         <v>83</v>
@@ -9135,856 +9127,2973 @@
         <v>90</v>
       </c>
       <c r="AP7" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR7" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AQ7" s="12" t="s">
+      <c r="AS7" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AR7" s="12" t="s">
+      <c r="AT7" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AS7" s="5" t="s">
+      <c r="AU7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AT7" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU7" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="AV7" s="5" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="AW7" s="5" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AX7" s="5" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="AY7" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="AZ7" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="BA7" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="BB7" s="5"/>
+        <v>150</v>
+      </c>
     </row>
-    <row r="8" spans="2:54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:53" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="12">
         <v>1</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="31">
+        <v>135</v>
+      </c>
+      <c r="F8" s="28">
         <v>1000</v>
       </c>
-      <c r="G8" s="31">
-        <v>90</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="I8" s="31" t="s">
+      <c r="G8" s="28">
+        <v>95</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="U8" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="V8" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="W8" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="X8" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y8" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z8" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA8" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB8" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC8" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD8" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE8" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF8" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="P8" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q8" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="R8" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="S8" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="U8" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="V8" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="W8" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="X8" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y8" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z8" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA8" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB8" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC8" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD8" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE8" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF8" s="12" t="s">
-        <v>130</v>
-      </c>
       <c r="AG8" s="12" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="AH8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AI8" s="12">
-        <v>70.011499999999998</v>
-      </c>
-      <c r="AJ8" s="29">
-        <v>57979.640898692982</v>
-      </c>
-      <c r="AK8" s="36">
-        <v>110.71007012935208</v>
-      </c>
-      <c r="AL8" s="12">
-        <v>0.13007335935334541</v>
-      </c>
-      <c r="AM8" s="12">
-        <v>-33.684183144827848</v>
-      </c>
-      <c r="AN8" s="36">
-        <v>18.246983064539016</v>
-      </c>
-      <c r="AO8" s="12">
-        <v>61.001644698795126</v>
-      </c>
-      <c r="AP8" s="39">
-        <v>13.089245962587286</v>
-      </c>
-      <c r="AQ8" s="40">
-        <v>10.476327987633866</v>
-      </c>
-      <c r="AR8" s="41">
-        <v>8.4299622065972208</v>
-      </c>
-      <c r="AS8" s="42">
-        <v>23.239840652504263</v>
-      </c>
-      <c r="AT8" s="42">
-        <v>15.306171264719469</v>
-      </c>
-      <c r="AU8" s="42">
-        <v>25.130933353912503</v>
-      </c>
-      <c r="AV8" s="42">
-        <v>66.677189651172142</v>
-      </c>
-      <c r="AW8" s="42">
-        <v>75.679278970051456</v>
-      </c>
-      <c r="AX8" s="42">
-        <v>42.027965902874875</v>
-      </c>
-      <c r="AY8" s="42">
-        <v>82.481844937690681</v>
-      </c>
-      <c r="AZ8" s="42">
-        <v>74.613920777106401</v>
-      </c>
-      <c r="BA8" s="42">
-        <v>96.479008508529617</v>
-      </c>
-      <c r="BB8" s="32"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="34"/>
+      <c r="AQ8" s="35"/>
+      <c r="AR8" s="36"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="33"/>
+      <c r="AU8" s="33"/>
+      <c r="AV8" s="33"/>
+      <c r="AW8" s="33"/>
+      <c r="AX8" s="33"/>
+      <c r="AY8" s="33"/>
+      <c r="AZ8" s="33"/>
+      <c r="BA8" s="33"/>
     </row>
-    <row r="9" spans="2:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="12">
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="31">
-        <v>1000</v>
-      </c>
-      <c r="G9" s="31">
-        <v>95</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="28">
+        <v>3000</v>
+      </c>
+      <c r="G9" s="28">
+        <v>120</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="U9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="V9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="W9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="X9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF9" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="J9" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="N9" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q9" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="S9" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="T9" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="U9" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="V9" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="W9" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="X9" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y9" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z9" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA9" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB9" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC9" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD9" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE9" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF9" s="12" t="s">
-        <v>130</v>
-      </c>
       <c r="AG9" s="12" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="AH9" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI9" s="12">
-        <v>34.068399999999997</v>
-      </c>
-      <c r="AJ9" s="29">
-        <v>123211.56039242282</v>
-      </c>
-      <c r="AK9" s="36">
-        <v>92.172660408087836</v>
-      </c>
-      <c r="AL9" s="12">
-        <v>0.1479365438881704</v>
-      </c>
-      <c r="AM9" s="12">
-        <v>-31.555351331619192</v>
-      </c>
-      <c r="AN9" s="36">
-        <v>28.611265083210426</v>
-      </c>
-      <c r="AO9" s="12">
-        <v>168.54582724693751</v>
-      </c>
-      <c r="AP9" s="39">
-        <v>14.350363692384324</v>
-      </c>
-      <c r="AQ9" s="40">
-        <v>11.394079242422476</v>
-      </c>
-      <c r="AR9" s="41">
-        <v>13.128393018417128</v>
-      </c>
-      <c r="AS9" s="42">
-        <v>26.792316395037169</v>
-      </c>
-      <c r="AT9" s="42">
-        <v>27.690555669756129</v>
-      </c>
-      <c r="AU9" s="42">
-        <v>17.872374959687548</v>
-      </c>
-      <c r="AV9" s="42"/>
-      <c r="AW9" s="42"/>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="42"/>
-      <c r="AZ9" s="42"/>
-      <c r="BA9" s="42"/>
-      <c r="BB9" s="32"/>
+        <v>84</v>
+      </c>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="33"/>
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33"/>
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
     </row>
-    <row r="10" spans="2:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="12">
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="31">
+        <v>135</v>
+      </c>
+      <c r="F10" s="28">
+        <v>4000</v>
+      </c>
+      <c r="G10" s="28">
+        <v>125.65</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="U10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="V10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="W10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF10" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG10" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="35"/>
+      <c r="AR10" s="36"/>
+      <c r="AS10" s="37"/>
+      <c r="AT10" s="33"/>
+      <c r="AU10" s="33"/>
+      <c r="AV10" s="33"/>
+      <c r="AW10" s="33"/>
+      <c r="AX10" s="33"/>
+      <c r="AY10" s="33"/>
+      <c r="AZ10" s="33"/>
+      <c r="BA10" s="33"/>
+    </row>
+    <row r="11" spans="2:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="12">
+        <v>4</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="28">
         <v>1000</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G11" s="28">
         <v>95</v>
       </c>
-      <c r="H10" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="I10" s="31" t="s">
+      <c r="H11" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q11" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="U11" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="V11" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="W11" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="X11" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y11" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z11" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA11" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB11" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC11" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD11" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE11" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF11" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="31" t="s">
+      <c r="AG11" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="37"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="33"/>
+      <c r="AV11" s="33"/>
+      <c r="AW11" s="33"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="33"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="33"/>
+    </row>
+    <row r="12" spans="2:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="28">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="28">
+        <v>120</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q12" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="S12" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="T12" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="U12" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="V12" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="W12" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="X12" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y12" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z12" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA12" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB12" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC12" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD12" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE12" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF12" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L10" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="M10" s="31" t="s">
+      <c r="AG12" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="34"/>
+      <c r="AQ12" s="35"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="37"/>
+      <c r="AT12" s="33"/>
+      <c r="AU12" s="33"/>
+      <c r="AV12" s="33"/>
+      <c r="AW12" s="33"/>
+      <c r="AX12" s="33"/>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="33"/>
+      <c r="BA12" s="33"/>
+    </row>
+    <row r="13" spans="2:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="12">
+        <v>6</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="28">
+        <v>4000</v>
+      </c>
+      <c r="G13" s="28">
+        <v>125.65</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q13" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="S13" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="T13" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="U13" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="V13" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="W13" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="X13" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y13" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z13" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA13" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB13" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC13" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD13" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE13" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF13" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="AG13" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH13" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31">
+        <v>76164.544191702269</v>
+      </c>
+      <c r="AK13" s="31">
+        <v>72.596978684727517</v>
+      </c>
+      <c r="AL13" s="31">
+        <v>3.1350900845719225E-2</v>
+      </c>
+      <c r="AM13" s="31">
+        <v>-50.979927142689277</v>
+      </c>
+      <c r="AN13" s="31">
+        <v>18.932919130932888</v>
+      </c>
+      <c r="AO13" s="31">
+        <v>195.95151703858858</v>
+      </c>
+      <c r="AP13" s="34">
+        <v>16.082310075902221</v>
+      </c>
+      <c r="AQ13" s="35">
+        <v>9.7990315592872737</v>
+      </c>
+      <c r="AR13" s="36">
+        <v>11.270809216381343</v>
+      </c>
+      <c r="AS13" s="37">
+        <v>12.42840028322393</v>
+      </c>
+      <c r="AT13" s="37">
+        <v>24.709723542266811</v>
+      </c>
+      <c r="AU13" s="37">
+        <v>25.952386372284735</v>
+      </c>
+      <c r="AV13" s="29">
+        <v>42.667558088507604</v>
+      </c>
+      <c r="AW13" s="29">
+        <v>50.456662308801384</v>
+      </c>
+      <c r="AX13" s="29">
+        <v>33.79017273051538</v>
+      </c>
+      <c r="AY13" s="29">
+        <v>56.476821517808141</v>
+      </c>
+      <c r="AZ13" s="29">
+        <v>62.752171639231435</v>
+      </c>
+      <c r="BA13" s="29">
+        <v>37.905096676547466</v>
+      </c>
+    </row>
+    <row r="14" spans="2:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="12">
+        <v>7</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="28">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="28">
+        <v>95</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q14" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="S14" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="U14" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="V14" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="W14" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y14" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z14" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA14" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB14" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC14" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD14" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE14" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF14" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG14" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="32">
+        <v>62353.559627697476</v>
+      </c>
+      <c r="AK14" s="32">
+        <v>114.84727892172762</v>
+      </c>
+      <c r="AL14" s="32">
+        <v>0.1006013855871129</v>
+      </c>
+      <c r="AM14" s="32">
+        <v>-36.18368244914172</v>
+      </c>
+      <c r="AN14" s="32">
+        <v>16.464210861481099</v>
+      </c>
+      <c r="AO14" s="32">
+        <v>182.17781812156426</v>
+      </c>
+      <c r="AP14" s="36">
+        <v>12.10405907743954</v>
+      </c>
+      <c r="AQ14" s="35">
+        <v>15.127384065295697</v>
+      </c>
+      <c r="AR14" s="36">
+        <v>10.139734633374676</v>
+      </c>
+      <c r="AS14" s="37">
+        <v>11.205775879029042</v>
+      </c>
+      <c r="AT14" s="37">
+        <v>23.452369785194289</v>
+      </c>
+      <c r="AU14" s="37">
+        <v>25.01184107628681</v>
+      </c>
+      <c r="AV14" s="33">
+        <v>62.872156978369439</v>
+      </c>
+      <c r="AW14" s="33">
+        <v>83.879727431788822</v>
+      </c>
+      <c r="AX14" s="33">
+        <v>32.466617190040573</v>
+      </c>
+      <c r="AY14" s="33">
+        <v>23.176247495144921</v>
+      </c>
+      <c r="AZ14" s="33">
+        <v>43.711113951437213</v>
+      </c>
+      <c r="BA14" s="33">
+        <v>55.59604626344359</v>
+      </c>
+    </row>
+    <row r="15" spans="2:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" s="12">
+        <v>8</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="28">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="28">
+        <v>120</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q15" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="S15" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="U15" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="V15" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="W15" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="X15" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z15" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA15" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB15" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC15" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD15" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE15" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF15" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG15" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="35"/>
+      <c r="AR15" s="36"/>
+      <c r="AS15" s="37"/>
+      <c r="AT15" s="37"/>
+      <c r="AU15" s="37"/>
+      <c r="AV15" s="29"/>
+      <c r="AW15" s="29"/>
+      <c r="AX15" s="29"/>
+      <c r="AY15" s="29"/>
+      <c r="AZ15" s="29"/>
+      <c r="BA15" s="29"/>
+    </row>
+    <row r="16" spans="2:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="5">
+        <v>7</v>
+      </c>
+      <c r="C16" s="12">
+        <v>9</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="28">
+        <v>4000</v>
+      </c>
+      <c r="G16" s="28">
+        <v>125.65</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="O16" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q16" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="R16" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="S16" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="T16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="U16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="V16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="W16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="X16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF16" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG16" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="32"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="35"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="37"/>
+      <c r="AT16" s="37"/>
+      <c r="AU16" s="37"/>
+      <c r="AV16" s="29"/>
+      <c r="AW16" s="29"/>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="29"/>
+      <c r="AZ16" s="29"/>
+      <c r="BA16" s="29"/>
+    </row>
+    <row r="17" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="12">
+        <v>10</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="28">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="28">
+        <v>95</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="S17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="T17" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="O10" s="31" t="s">
+      <c r="U17" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="P10" s="31" t="s">
+      <c r="V17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="W17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="X17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z17" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="Q10" s="31" t="s">
+      <c r="AA17" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="R10" s="31" t="s">
+      <c r="AB17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE17" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="32"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="35"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="37"/>
+      <c r="AT17" s="37"/>
+      <c r="AU17" s="37"/>
+      <c r="AV17" s="33"/>
+      <c r="AW17" s="33"/>
+      <c r="AX17" s="33"/>
+      <c r="AY17" s="33"/>
+      <c r="AZ17" s="33"/>
+      <c r="BA17" s="33"/>
+    </row>
+    <row r="18" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="12">
+        <v>11</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="28">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="28">
+        <v>95</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="S18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="T18" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="S10" s="31" t="s">
+      <c r="U18" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="T10" s="31" t="s">
+      <c r="V18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="W18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="X18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z18" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="U10" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="V10" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="W10" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="X10" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y10" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z10" s="31" t="s">
+      <c r="AA18" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="AA10" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB10" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC10" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD10" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE10" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF10" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG10" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH10" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI10" s="28">
-        <v>53.354900000000001</v>
-      </c>
-      <c r="AJ10" s="30">
-        <v>65125.410785856249</v>
-      </c>
-      <c r="AK10" s="37">
-        <v>114.50258448901006</v>
-      </c>
-      <c r="AL10" s="28">
-        <v>0.10407027761116984</v>
-      </c>
-      <c r="AM10" s="28">
-        <v>-35.852301295087834</v>
-      </c>
-      <c r="AN10" s="37">
-        <v>22.752927431927574</v>
-      </c>
-      <c r="AO10" s="28">
-        <v>41.364308985204218</v>
-      </c>
-      <c r="AP10" s="39">
-        <v>13.2899583196915</v>
-      </c>
-      <c r="AQ10" s="40">
-        <v>11.416675882592884</v>
-      </c>
-      <c r="AR10" s="41">
-        <v>12.581248280509538</v>
-      </c>
-      <c r="AS10" s="42">
-        <v>25.741013728862018</v>
-      </c>
-      <c r="AT10" s="42">
-        <v>15.413698353010385</v>
-      </c>
-      <c r="AU10" s="42">
-        <v>26.016967069545633</v>
-      </c>
-      <c r="AV10" s="42"/>
-      <c r="AW10" s="42"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="42"/>
-      <c r="BA10" s="42"/>
-      <c r="BB10" s="32"/>
+      <c r="AB18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="35"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="37"/>
+      <c r="AT18" s="37"/>
+      <c r="AU18" s="37"/>
+      <c r="AV18" s="33"/>
+      <c r="AW18" s="33"/>
+      <c r="AX18" s="33"/>
+      <c r="AY18" s="33"/>
+      <c r="AZ18" s="33"/>
+      <c r="BA18" s="33"/>
     </row>
-    <row r="11" spans="2:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="31">
-        <v>4</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="31">
+    <row r="19" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="12">
+        <v>12</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="28">
         <v>1000</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G19" s="28">
         <v>95</v>
       </c>
-      <c r="H11" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="N11" s="31" t="s">
+      <c r="H19" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="R19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="S19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="T19" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="U19" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="V19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="W19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="X19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z19" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="Q11" s="31" t="s">
+      <c r="AA19" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="R11" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="S11" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="T11" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="U11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="V11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="W11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="X11" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z11" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD11" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF11" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG11" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH11" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI11" s="32">
-        <v>37.703499999999998</v>
-      </c>
-      <c r="AJ11" s="34">
-        <v>75256.277670018972</v>
-      </c>
-      <c r="AK11" s="38">
-        <v>115.86658422066454</v>
-      </c>
-      <c r="AL11" s="32">
-        <v>0.13398641105614328</v>
-      </c>
-      <c r="AM11" s="32">
-        <v>-33.525516060842769</v>
-      </c>
-      <c r="AN11" s="38">
-        <v>15.427817261637987</v>
-      </c>
-      <c r="AO11" s="32">
-        <v>219.69326708676448</v>
-      </c>
-      <c r="AP11" s="43">
-        <v>7.0623704472962157</v>
-      </c>
-      <c r="AQ11" s="44">
-        <v>15.470246146657727</v>
-      </c>
-      <c r="AR11" s="42">
-        <v>10.133036968714839</v>
-      </c>
-      <c r="AS11" s="42">
-        <v>11.158998635218003</v>
-      </c>
-      <c r="AT11" s="42">
-        <v>22.781986912273592</v>
-      </c>
-      <c r="AU11" s="42">
-        <v>24.645830349364395</v>
-      </c>
-      <c r="AV11" s="42"/>
-      <c r="AW11" s="42"/>
-      <c r="AX11" s="42"/>
-      <c r="AY11" s="42"/>
-      <c r="AZ11" s="42"/>
-      <c r="BA11" s="42"/>
-      <c r="BB11" s="32"/>
+      <c r="AB19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="32"/>
+      <c r="AO19" s="32"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="35"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="37"/>
+      <c r="AT19" s="37"/>
+      <c r="AU19" s="37"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="29"/>
     </row>
-    <row r="12" spans="2:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="31">
-        <v>5</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="31">
-        <v>1000</v>
-      </c>
-      <c r="G12" s="31">
-        <v>95</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="N12" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="O12" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="P12" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q12" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="R12" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="S12" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="T12" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="U12" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="V12" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="W12" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="X12" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y12" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z12" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA12" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB12" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC12" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD12" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE12" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF12" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH12" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI12" s="32">
-        <v>67.668199999999999</v>
-      </c>
-      <c r="AJ12" s="34">
-        <v>168200</v>
-      </c>
-      <c r="AK12" s="38">
-        <v>67.668199999999999</v>
-      </c>
-      <c r="AL12" s="32">
-        <v>0.19589999999999999</v>
-      </c>
-      <c r="AM12" s="32">
-        <v>29.7483</v>
-      </c>
-      <c r="AN12" s="38">
-        <v>21.782</v>
-      </c>
-      <c r="AO12" s="32">
-        <v>100.4211</v>
-      </c>
-      <c r="AP12" s="31"/>
-      <c r="AQ12" s="33"/>
-      <c r="AR12" s="32"/>
-      <c r="AS12" s="32"/>
-      <c r="AT12" s="32"/>
-      <c r="AU12" s="32"/>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="42"/>
-      <c r="BA12" s="42"/>
-      <c r="BB12" s="32"/>
+    <row r="20" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="12">
+        <v>13</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="35"/>
+      <c r="AR20" s="36"/>
+      <c r="AS20" s="37"/>
+      <c r="AT20" s="37"/>
+      <c r="AU20" s="37"/>
+      <c r="AV20" s="33"/>
+      <c r="AW20" s="33"/>
+      <c r="AX20" s="33"/>
+      <c r="AY20" s="33"/>
+      <c r="AZ20" s="33"/>
+      <c r="BA20" s="33"/>
     </row>
-    <row r="13" spans="2:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="38"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="32"/>
-      <c r="AQ13" s="33"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="32"/>
-      <c r="AT13" s="32"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="42"/>
-      <c r="AW13" s="42"/>
-      <c r="AX13" s="42"/>
-      <c r="AY13" s="42"/>
-      <c r="AZ13" s="42"/>
-      <c r="BA13" s="42"/>
-      <c r="BB13" s="32"/>
+    <row r="21" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="12">
+        <v>14</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="32"/>
+      <c r="AO21" s="32"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="35"/>
+      <c r="AR21" s="36"/>
+      <c r="AS21" s="37"/>
+      <c r="AT21" s="37"/>
+      <c r="AU21" s="37"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="29"/>
+      <c r="BA21" s="29"/>
     </row>
-    <row r="14" spans="2:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AK14" s="45"/>
-      <c r="AN14" s="45"/>
+    <row r="22" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="12">
+        <v>15</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="32"/>
+      <c r="AO22" s="32"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="35"/>
+      <c r="AR22" s="36"/>
+      <c r="AS22" s="37"/>
+      <c r="AT22" s="37"/>
+      <c r="AU22" s="37"/>
+      <c r="AV22" s="29"/>
+      <c r="AW22" s="29"/>
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="29"/>
+      <c r="AZ22" s="29"/>
+      <c r="BA22" s="29"/>
     </row>
-    <row r="15" spans="2:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AK15" s="45"/>
-      <c r="AN15" s="45"/>
+    <row r="23" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="12">
+        <v>16</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="32"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="35"/>
+      <c r="AR23" s="36"/>
+      <c r="AS23" s="37"/>
+      <c r="AT23" s="37"/>
+      <c r="AU23" s="37"/>
+      <c r="AV23" s="33"/>
+      <c r="AW23" s="33"/>
+      <c r="AX23" s="33"/>
+      <c r="AY23" s="33"/>
+      <c r="AZ23" s="33"/>
+      <c r="BA23" s="33"/>
     </row>
-    <row r="16" spans="2:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AK16" s="45"/>
-      <c r="AN16" s="45"/>
+    <row r="24" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="12">
+        <v>17</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="32"/>
+      <c r="AL24" s="32"/>
+      <c r="AM24" s="32"/>
+      <c r="AN24" s="32"/>
+      <c r="AO24" s="32"/>
+      <c r="AP24" s="36"/>
+      <c r="AQ24" s="35"/>
+      <c r="AR24" s="36"/>
+      <c r="AS24" s="37"/>
+      <c r="AT24" s="37"/>
+      <c r="AU24" s="37"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="29"/>
+      <c r="AZ24" s="29"/>
+      <c r="BA24" s="29"/>
     </row>
-    <row r="17" spans="37:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AK17" s="45"/>
-      <c r="AN17" s="45"/>
+    <row r="25" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="12">
+        <v>18</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
+      <c r="AO25" s="32"/>
+      <c r="AP25" s="36"/>
+      <c r="AQ25" s="35"/>
+      <c r="AR25" s="36"/>
+      <c r="AS25" s="37"/>
+      <c r="AT25" s="37"/>
+      <c r="AU25" s="37"/>
+      <c r="AV25" s="29"/>
+      <c r="AW25" s="29"/>
+      <c r="AX25" s="29"/>
+      <c r="AY25" s="29"/>
+      <c r="AZ25" s="29"/>
+      <c r="BA25" s="29"/>
     </row>
-    <row r="18" spans="37:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AN18" s="45"/>
+    <row r="26" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="12">
+        <v>19</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="32"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32"/>
+      <c r="AO26" s="32"/>
+      <c r="AP26" s="36"/>
+      <c r="AQ26" s="35"/>
+      <c r="AR26" s="36"/>
+      <c r="AS26" s="37"/>
+      <c r="AT26" s="37"/>
+      <c r="AU26" s="37"/>
+      <c r="AV26" s="29"/>
+      <c r="AW26" s="29"/>
+      <c r="AX26" s="29"/>
+      <c r="AY26" s="29"/>
+      <c r="AZ26" s="29"/>
+      <c r="BA26" s="29"/>
     </row>
-    <row r="19" spans="37:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AN19" s="45"/>
+    <row r="27" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="12">
+        <v>20</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="35"/>
+      <c r="AR27" s="36"/>
+      <c r="AS27" s="37"/>
+      <c r="AT27" s="37"/>
+      <c r="AU27" s="37"/>
+      <c r="AV27" s="29"/>
+      <c r="AW27" s="29"/>
+      <c r="AX27" s="29"/>
+      <c r="AY27" s="29"/>
+      <c r="AZ27" s="29"/>
+      <c r="BA27" s="29"/>
     </row>
-    <row r="20" spans="37:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AN20" s="45"/>
+    <row r="28" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="12">
+        <v>21</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="36"/>
+      <c r="AQ28" s="35"/>
+      <c r="AR28" s="36"/>
+      <c r="AS28" s="37"/>
+      <c r="AT28" s="37"/>
+      <c r="AU28" s="37"/>
+      <c r="AV28" s="29"/>
+      <c r="AW28" s="29"/>
+      <c r="AX28" s="29"/>
+      <c r="AY28" s="29"/>
+      <c r="AZ28" s="29"/>
+      <c r="BA28" s="29"/>
     </row>
-    <row r="21" spans="37:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AN21" s="45"/>
+    <row r="29" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="12">
+        <v>22</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="32"/>
+      <c r="AK29" s="32"/>
+      <c r="AL29" s="32"/>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="32"/>
+      <c r="AO29" s="32"/>
+      <c r="AP29" s="36"/>
+      <c r="AQ29" s="35"/>
+      <c r="AR29" s="36"/>
+      <c r="AS29" s="37"/>
+      <c r="AT29" s="37"/>
+      <c r="AU29" s="37"/>
+      <c r="AV29" s="29"/>
+      <c r="AW29" s="29"/>
+      <c r="AX29" s="29"/>
+      <c r="AY29" s="29"/>
+      <c r="AZ29" s="29"/>
+      <c r="BA29" s="29"/>
     </row>
-    <row r="22" spans="37:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AN22" s="45"/>
+    <row r="30" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="12">
+        <v>23</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="32"/>
+      <c r="AK30" s="32"/>
+      <c r="AL30" s="32"/>
+      <c r="AM30" s="32"/>
+      <c r="AN30" s="32"/>
+      <c r="AO30" s="32"/>
+      <c r="AP30" s="36"/>
+      <c r="AQ30" s="35"/>
+      <c r="AR30" s="36"/>
+      <c r="AS30" s="37"/>
+      <c r="AT30" s="37"/>
+      <c r="AU30" s="37"/>
+      <c r="AV30" s="29"/>
+      <c r="AW30" s="29"/>
+      <c r="AX30" s="29"/>
+      <c r="AY30" s="29"/>
+      <c r="AZ30" s="29"/>
+      <c r="BA30" s="29"/>
     </row>
-    <row r="23" spans="37:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AN23" s="45"/>
+    <row r="31" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="12">
+        <v>24</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="32"/>
+      <c r="AK31" s="32"/>
+      <c r="AL31" s="32"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="32"/>
+      <c r="AO31" s="32"/>
+      <c r="AP31" s="36"/>
+      <c r="AQ31" s="35"/>
+      <c r="AR31" s="36"/>
+      <c r="AS31" s="37"/>
+      <c r="AT31" s="37"/>
+      <c r="AU31" s="37"/>
+      <c r="AV31" s="29"/>
+      <c r="AW31" s="29"/>
+      <c r="AX31" s="29"/>
+      <c r="AY31" s="29"/>
+      <c r="AZ31" s="29"/>
+      <c r="BA31" s="29"/>
     </row>
-    <row r="24" spans="37:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AN24" s="45"/>
+    <row r="32" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="12">
+        <v>25</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="32"/>
+      <c r="AJ32" s="32"/>
+      <c r="AK32" s="32"/>
+      <c r="AL32" s="32"/>
+      <c r="AM32" s="32"/>
+      <c r="AN32" s="32"/>
+      <c r="AO32" s="32"/>
+      <c r="AP32" s="36"/>
+      <c r="AQ32" s="35"/>
+      <c r="AR32" s="36"/>
+      <c r="AS32" s="37"/>
+      <c r="AT32" s="37"/>
+      <c r="AU32" s="37"/>
+      <c r="AV32" s="29"/>
+      <c r="AW32" s="29"/>
+      <c r="AX32" s="29"/>
+      <c r="AY32" s="29"/>
+      <c r="AZ32" s="29"/>
+      <c r="BA32" s="29"/>
+    </row>
+    <row r="33" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="12">
+        <v>26</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="32"/>
+      <c r="AJ33" s="32"/>
+      <c r="AK33" s="32"/>
+      <c r="AL33" s="32"/>
+      <c r="AM33" s="32"/>
+      <c r="AN33" s="32"/>
+      <c r="AO33" s="32"/>
+      <c r="AP33" s="36"/>
+      <c r="AQ33" s="35"/>
+      <c r="AR33" s="36"/>
+      <c r="AS33" s="37"/>
+      <c r="AT33" s="37"/>
+      <c r="AU33" s="37"/>
+      <c r="AV33" s="29"/>
+      <c r="AW33" s="29"/>
+      <c r="AX33" s="29"/>
+      <c r="AY33" s="29"/>
+      <c r="AZ33" s="29"/>
+      <c r="BA33" s="29"/>
+    </row>
+    <row r="34" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="12">
+        <v>27</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="32"/>
+      <c r="AJ34" s="32"/>
+      <c r="AK34" s="32"/>
+      <c r="AL34" s="32"/>
+      <c r="AM34" s="32"/>
+      <c r="AN34" s="32"/>
+      <c r="AO34" s="32"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="35"/>
+      <c r="AR34" s="36"/>
+      <c r="AS34" s="37"/>
+      <c r="AT34" s="37"/>
+      <c r="AU34" s="37"/>
+      <c r="AV34" s="29"/>
+      <c r="AW34" s="29"/>
+      <c r="AX34" s="29"/>
+      <c r="AY34" s="29"/>
+      <c r="AZ34" s="29"/>
+      <c r="BA34" s="29"/>
+    </row>
+    <row r="35" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="12">
+        <v>28</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="32"/>
+      <c r="AJ35" s="32"/>
+      <c r="AK35" s="32"/>
+      <c r="AL35" s="32"/>
+      <c r="AM35" s="32"/>
+      <c r="AN35" s="32"/>
+      <c r="AO35" s="32"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="35"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="37"/>
+      <c r="AT35" s="37"/>
+      <c r="AU35" s="37"/>
+      <c r="AV35" s="29"/>
+      <c r="AW35" s="29"/>
+      <c r="AX35" s="29"/>
+      <c r="AY35" s="29"/>
+      <c r="AZ35" s="29"/>
+      <c r="BA35" s="29"/>
+    </row>
+    <row r="36" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="12">
+        <v>29</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="32"/>
+      <c r="AJ36" s="32"/>
+      <c r="AK36" s="32"/>
+      <c r="AL36" s="32"/>
+      <c r="AM36" s="32"/>
+      <c r="AN36" s="32"/>
+      <c r="AO36" s="32"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="35"/>
+      <c r="AR36" s="36"/>
+      <c r="AS36" s="37"/>
+      <c r="AT36" s="37"/>
+      <c r="AU36" s="37"/>
+      <c r="AV36" s="29"/>
+      <c r="AW36" s="29"/>
+      <c r="AX36" s="29"/>
+      <c r="AY36" s="29"/>
+      <c r="AZ36" s="29"/>
+      <c r="BA36" s="29"/>
+    </row>
+    <row r="37" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="12">
+        <v>30</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="32"/>
+      <c r="AJ37" s="32"/>
+      <c r="AK37" s="32"/>
+      <c r="AL37" s="32"/>
+      <c r="AM37" s="32"/>
+      <c r="AN37" s="32"/>
+      <c r="AO37" s="32"/>
+      <c r="AP37" s="36"/>
+      <c r="AQ37" s="35"/>
+      <c r="AR37" s="36"/>
+      <c r="AS37" s="37"/>
+      <c r="AT37" s="37"/>
+      <c r="AU37" s="37"/>
+      <c r="AV37" s="29"/>
+      <c r="AW37" s="29"/>
+      <c r="AX37" s="29"/>
+      <c r="AY37" s="29"/>
+      <c r="AZ37" s="29"/>
+      <c r="BA37" s="29"/>
+    </row>
+    <row r="38" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="12">
+        <v>31</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="32"/>
+      <c r="AJ38" s="32"/>
+      <c r="AK38" s="32"/>
+      <c r="AL38" s="32"/>
+      <c r="AM38" s="32"/>
+      <c r="AN38" s="32"/>
+      <c r="AO38" s="32"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="35"/>
+      <c r="AR38" s="36"/>
+      <c r="AS38" s="37"/>
+      <c r="AT38" s="37"/>
+      <c r="AU38" s="37"/>
+      <c r="AV38" s="29"/>
+      <c r="AW38" s="29"/>
+      <c r="AX38" s="29"/>
+      <c r="AY38" s="29"/>
+      <c r="AZ38" s="29"/>
+      <c r="BA38" s="29"/>
+    </row>
+    <row r="39" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="12">
+        <v>32</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="32"/>
+      <c r="AJ39" s="32"/>
+      <c r="AK39" s="32"/>
+      <c r="AL39" s="32"/>
+      <c r="AM39" s="32"/>
+      <c r="AN39" s="32"/>
+      <c r="AO39" s="32"/>
+      <c r="AP39" s="36"/>
+      <c r="AQ39" s="35"/>
+      <c r="AR39" s="36"/>
+      <c r="AS39" s="37"/>
+      <c r="AT39" s="37"/>
+      <c r="AU39" s="37"/>
+      <c r="AV39" s="29"/>
+      <c r="AW39" s="29"/>
+      <c r="AX39" s="29"/>
+      <c r="AY39" s="29"/>
+      <c r="AZ39" s="29"/>
+      <c r="BA39" s="29"/>
+    </row>
+    <row r="40" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="12">
+        <v>33</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="32"/>
+      <c r="AJ40" s="32"/>
+      <c r="AK40" s="32"/>
+      <c r="AL40" s="32"/>
+      <c r="AM40" s="32"/>
+      <c r="AN40" s="32"/>
+      <c r="AO40" s="32"/>
+      <c r="AP40" s="36"/>
+      <c r="AQ40" s="35"/>
+      <c r="AR40" s="36"/>
+      <c r="AS40" s="37"/>
+      <c r="AT40" s="37"/>
+      <c r="AU40" s="37"/>
+      <c r="AV40" s="29"/>
+      <c r="AW40" s="29"/>
+      <c r="AX40" s="29"/>
+      <c r="AY40" s="29"/>
+      <c r="AZ40" s="29"/>
+      <c r="BA40" s="29"/>
+    </row>
+    <row r="41" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="12">
+        <v>34</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="32"/>
+      <c r="AJ41" s="32"/>
+      <c r="AK41" s="32"/>
+      <c r="AL41" s="32"/>
+      <c r="AM41" s="32"/>
+      <c r="AN41" s="32"/>
+      <c r="AO41" s="32"/>
+      <c r="AP41" s="36"/>
+      <c r="AQ41" s="35"/>
+      <c r="AR41" s="36"/>
+      <c r="AS41" s="37"/>
+      <c r="AT41" s="37"/>
+      <c r="AU41" s="37"/>
+      <c r="AV41" s="29"/>
+      <c r="AW41" s="29"/>
+      <c r="AX41" s="29"/>
+      <c r="AY41" s="29"/>
+      <c r="AZ41" s="29"/>
+      <c r="BA41" s="29"/>
+    </row>
+    <row r="42" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="12">
+        <v>35</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="32"/>
+      <c r="AJ42" s="32"/>
+      <c r="AK42" s="32"/>
+      <c r="AL42" s="32"/>
+      <c r="AM42" s="32"/>
+      <c r="AN42" s="32"/>
+      <c r="AO42" s="32"/>
+      <c r="AP42" s="36"/>
+      <c r="AQ42" s="35"/>
+      <c r="AR42" s="36"/>
+      <c r="AS42" s="37"/>
+      <c r="AT42" s="37"/>
+      <c r="AU42" s="37"/>
+      <c r="AV42" s="29"/>
+      <c r="AW42" s="29"/>
+      <c r="AX42" s="29"/>
+      <c r="AY42" s="29"/>
+      <c r="AZ42" s="29"/>
+      <c r="BA42" s="29"/>
+    </row>
+    <row r="43" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="12">
+        <v>36</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="32"/>
+      <c r="AJ43" s="32"/>
+      <c r="AK43" s="32"/>
+      <c r="AL43" s="32"/>
+      <c r="AM43" s="32"/>
+      <c r="AN43" s="32"/>
+      <c r="AO43" s="32"/>
+      <c r="AP43" s="36"/>
+      <c r="AQ43" s="35"/>
+      <c r="AR43" s="36"/>
+      <c r="AS43" s="37"/>
+      <c r="AT43" s="37"/>
+      <c r="AU43" s="37"/>
+      <c r="AV43" s="29"/>
+      <c r="AW43" s="29"/>
+      <c r="AX43" s="29"/>
+      <c r="AY43" s="29"/>
+      <c r="AZ43" s="29"/>
+      <c r="BA43" s="29"/>
+    </row>
+    <row r="44" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="12">
+        <v>37</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="32"/>
+      <c r="AJ44" s="32"/>
+      <c r="AK44" s="32"/>
+      <c r="AL44" s="32"/>
+      <c r="AM44" s="32"/>
+      <c r="AN44" s="32"/>
+      <c r="AO44" s="32"/>
+      <c r="AP44" s="36"/>
+      <c r="AQ44" s="35"/>
+      <c r="AR44" s="36"/>
+      <c r="AS44" s="37"/>
+      <c r="AT44" s="37"/>
+      <c r="AU44" s="37"/>
+      <c r="AV44" s="29"/>
+      <c r="AW44" s="29"/>
+      <c r="AX44" s="29"/>
+      <c r="AY44" s="29"/>
+      <c r="AZ44" s="29"/>
+      <c r="BA44" s="29"/>
+    </row>
+    <row r="45" spans="3:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="12">
+        <v>38</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="32"/>
+      <c r="AJ45" s="32"/>
+      <c r="AK45" s="32"/>
+      <c r="AL45" s="32"/>
+      <c r="AM45" s="32"/>
+      <c r="AN45" s="32"/>
+      <c r="AO45" s="32"/>
+      <c r="AP45" s="36"/>
+      <c r="AQ45" s="35"/>
+      <c r="AR45" s="36"/>
+      <c r="AS45" s="37"/>
+      <c r="AT45" s="37"/>
+      <c r="AU45" s="37"/>
+      <c r="AV45" s="29"/>
+      <c r="AW45" s="29"/>
+      <c r="AX45" s="29"/>
+      <c r="AY45" s="29"/>
+      <c r="AZ45" s="29"/>
+      <c r="BA45" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AJ5:AO5"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
@@ -9993,21 +12102,9 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:S6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AJ5:AO5"/>
-    <mergeCell ref="Z5:AE5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Email Address" prompt="xxx@xxx.xxx" sqref="D8:E12 AQ8:AQ13" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Email Address" prompt="xxx@xxx.xxx" sqref="AQ8:AQ45 D8:E45" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup scale="55" fitToWidth="2" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -10020,33 +12117,108 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId4" name="ChkNF">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" altText="frfr" r:id="rId5">
+        <control shapeId="1029" r:id="rId4" name="ChkPos">
+          <controlPr defaultSize="0" autoLine="0" altText="frfr" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>186267</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:colOff>237067</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>173567</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1392767</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>977900</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>143933</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId4" name="ChkNF"/>
+        <control shapeId="1029" r:id="rId4" name="ChkPos"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId6" name="ChkObjValue">
+        <control shapeId="1033" r:id="rId6" name="ChkOri">
           <controlPr defaultSize="0" autoLine="0" altText="frfr" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>237067</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>135467</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>982133</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>110067</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId6" name="ChkOri"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId8" name="ChkStiff">
+          <controlPr defaultSize="0" autoLine="0" altText="frfr" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>211667</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>29633</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>952500</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId8" name="ChkStiff"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId10" name="ChkDamp">
+          <controlPr defaultSize="0" autoLine="0" altText="frfr" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>67733</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>969433</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId10" name="ChkDamp"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId12" name="ChkObjValue">
+          <controlPr defaultSize="0" autoLine="0" altText="frfr" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -10065,107 +12237,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId6" name="ChkObjValue"/>
+        <control shapeId="1037" r:id="rId12" name="ChkObjValue"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId8" name="ChkDamp">
-          <controlPr defaultSize="0" autoLine="0" altText="frfr" r:id="rId9">
+        <control shapeId="1039" r:id="rId14" name="ChkNF">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" altText="frfr" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>224367</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>965200</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>33867</xdr:rowOff>
+                <xdr:colOff>1392767</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId8" name="ChkDamp"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId10" name="ChkStiff">
-          <controlPr defaultSize="0" autoLine="0" altText="frfr" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>207433</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>29633</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>948267</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId10" name="ChkStiff"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId12" name="ChkOri">
-          <controlPr defaultSize="0" autoLine="0" altText="frfr" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>241300</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>131233</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>982133</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId12" name="ChkOri"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId14" name="ChkPos">
-          <controlPr defaultSize="0" autoLine="0" altText="frfr" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>241300</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>173567</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>982133</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>143933</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId14" name="ChkPos"/>
+        <control shapeId="1039" r:id="rId14" name="ChkNF"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10251,7 +12348,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10275,7 +12372,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10946,12 +13043,129 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
+    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </CampaignTagsTaxHTField0>
+    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
+    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">846006</LocLastLocAttemptVersionLookup>
+    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
+    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-06-28T23:16:00+00:00</AssetStart>
+    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
+    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Value>1590092</Value>
+    </PublishStatusLookup>
+    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName>REDMOND\v-aptall</DisplayName>
+        <AccountId>2566</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </APAuthor>
+    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
+    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
+    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
+    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP</AssetType>
+    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
+    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
+    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</IsSearchable>
+    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
+    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
+    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
+    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
+    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
+    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
+    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
+    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
+    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </LocalizationTagsTaxHTField0>
+    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
+    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </FeatureTagsTaxHTField0>
+    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102930101</AssetId>
+    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APEditor>
+    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
+    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
+    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
+    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </InternalTagsTaxHTField0>
+    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
+    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ScenarioTagsTaxHTField0>
+    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11995,135 +14209,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
-    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
-    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">846006</LocLastLocAttemptVersionLookup>
-    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
-    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-06-28T23:16:00+00:00</AssetStart>
-    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
-    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Value>1590092</Value>
-    </PublishStatusLookup>
-    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName>REDMOND\v-aptall</DisplayName>
-        <AccountId>2566</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
-    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
-    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
-    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP</AssetType>
-    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
-    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
-    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</IsSearchable>
-    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
-    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
-    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
-    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
-    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
-    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
-    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
-    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
-    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
-    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102930101</AssetId>
-    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
-    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
-    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
-    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
-    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D064DEC1-D1DD-4D6E-84FD-C42E574FBE73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AB8809-B126-4188-8846-728251218431}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12147,17 +14252,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AB8809-B126-4188-8846-728251218431}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D064DEC1-D1DD-4D6E-84FD-C42E574FBE73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>